--- a/REGULAR/OJT/SUSA, NANETTE B..xlsx
+++ b/REGULAR/OJT/SUSA, NANETTE B..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="296">
   <si>
     <t>PERIOD</t>
   </si>
@@ -850,9 +850,6 @@
   </si>
   <si>
     <t>12/31/2019</t>
-  </si>
-  <si>
-    <t>4/23,24/2020</t>
   </si>
   <si>
     <t>12/16,17/2020</t>
@@ -1799,7 +1796,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1839,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1903,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1963,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2029,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2092,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2190,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2249,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2314,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2357,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2432,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2618,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,7 +2684,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,7 +2742,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2808,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2864,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2942,7 +2939,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +2982,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,7 +3048,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,7 +3104,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3202,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,7 +3265,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3715,9 +3712,9 @@
   <dimension ref="A2:K597"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="3855" topLeftCell="A478" activePane="bottomLeft"/>
+      <pane ySplit="3855" topLeftCell="A427" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="E491" sqref="E491"/>
+      <selection pane="bottomLeft" activeCell="B431" sqref="B431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3748,7 +3745,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G2" s="61"/>
       <c r="H2" s="28" t="s">
@@ -3763,7 +3760,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
@@ -3785,14 +3782,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G4" s="59"/>
       <c r="H4" s="26" t="s">
@@ -3884,7 +3881,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>182.95999999999998</v>
+        <v>187.45999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3894,7 +3891,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>311.70799999999997</v>
+        <v>314.20799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3923,7 +3920,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="13">
@@ -13349,15 +13346,11 @@
       <c r="A431" s="40">
         <v>43922</v>
       </c>
-      <c r="B431" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="B431" s="20"/>
       <c r="C431" s="13">
         <v>1.25</v>
       </c>
-      <c r="D431" s="39">
-        <v>2</v>
-      </c>
+      <c r="D431" s="39"/>
       <c r="E431" s="9"/>
       <c r="F431" s="20"/>
       <c r="G431" s="13">
@@ -13367,9 +13360,7 @@
       <c r="H431" s="39"/>
       <c r="I431" s="9"/>
       <c r="J431" s="11"/>
-      <c r="K431" s="20" t="s">
-        <v>272</v>
-      </c>
+      <c r="K431" s="20"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
@@ -13538,7 +13529,7 @@
       <c r="I439" s="9"/>
       <c r="J439" s="11"/>
       <c r="K439" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
@@ -13558,7 +13549,7 @@
       <c r="I440" s="9"/>
       <c r="J440" s="11"/>
       <c r="K440" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
@@ -13684,7 +13675,7 @@
       <c r="I446" s="9"/>
       <c r="J446" s="11"/>
       <c r="K446" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
@@ -13770,7 +13761,7 @@
       <c r="I450" s="9"/>
       <c r="J450" s="11"/>
       <c r="K450" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
@@ -13834,7 +13825,7 @@
       <c r="I453" s="9"/>
       <c r="J453" s="11"/>
       <c r="K453" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
@@ -13856,7 +13847,7 @@
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
       <c r="K454" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
@@ -13926,7 +13917,7 @@
       <c r="I457" s="9"/>
       <c r="J457" s="11"/>
       <c r="K457" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
@@ -14058,13 +14049,13 @@
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
       <c r="K463" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C464" s="13"/>
       <c r="D464" s="39">
@@ -14080,7 +14071,7 @@
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
       <c r="K464" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
@@ -14148,7 +14139,7 @@
       <c r="I467" s="9"/>
       <c r="J467" s="11"/>
       <c r="K467" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
@@ -14170,7 +14161,7 @@
       <c r="I468" s="9"/>
       <c r="J468" s="11"/>
       <c r="K468" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
@@ -14192,7 +14183,7 @@
       <c r="I469" s="9"/>
       <c r="J469" s="11"/>
       <c r="K469" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
@@ -14266,7 +14257,7 @@
       <c r="I472" s="9"/>
       <c r="J472" s="11"/>
       <c r="K472" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
@@ -14312,7 +14303,7 @@
       <c r="I474" s="9"/>
       <c r="J474" s="11"/>
       <c r="K474" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
@@ -14334,7 +14325,7 @@
       <c r="I475" s="9"/>
       <c r="J475" s="11"/>
       <c r="K475" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
@@ -14387,7 +14378,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -14470,7 +14461,7 @@
       <c r="I481" s="9"/>
       <c r="J481" s="11"/>
       <c r="K481" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
@@ -14608,13 +14599,15 @@
         <v>45170</v>
       </c>
       <c r="B488" s="20"/>
-      <c r="C488" s="13"/>
+      <c r="C488" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D488" s="39"/>
       <c r="E488" s="9"/>
       <c r="F488" s="20"/>
-      <c r="G488" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G488" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H488" s="39"/>
       <c r="I488" s="9"/>
@@ -14626,13 +14619,15 @@
         <v>45200</v>
       </c>
       <c r="B489" s="20"/>
-      <c r="C489" s="13"/>
+      <c r="C489" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D489" s="39"/>
       <c r="E489" s="9"/>
       <c r="F489" s="20"/>
-      <c r="G489" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G489" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H489" s="39"/>
       <c r="I489" s="9"/>
@@ -16656,7 +16651,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
@@ -16681,7 +16676,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>494.66799999999995</v>
+        <v>501.66799999999995</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
